--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200429.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200429.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B3B50B-C990-4744-BE4D-7B6C8C9B1486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E6B36-C1E3-477D-A572-7F94402409E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3960" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -612,15 +612,15 @@
   <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -779,9 +779,6 @@
       <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
       <c r="P2">
         <v>50333</v>
       </c>
@@ -828,7 +825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -893,7 +890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -958,7 +955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -1088,7 +1085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1348,7 +1345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -1543,7 +1540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -1608,7 +1605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -1803,7 +1800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>77</v>
       </c>
@@ -2088,7 +2085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
